--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2009203.835419424</v>
+        <v>-2011923.23656367</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>25.22070194931013</v>
+        <v>222.8712469072914</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>309.9195785155503</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -826,16 +826,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>181.5971710136383</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.69168310080062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>66.27584010471152</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -956,7 +956,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>115.9538297235886</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,16 +1054,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>66.47690120327236</v>
+        <v>19.42606988153312</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>218.7777346947776</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>385.0756285683618</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>23.56832060551778</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,13 +1300,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -1339,7 +1339,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>131.1495788385454</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>62.1498983934874</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,10 +1534,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1576,7 +1576,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>64.35711883683294</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>28.75188085812005</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>14.53306611597423</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>138.5343125815919</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>105.6507867899578</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>10.63412424768206</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,10 +2296,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>243.4759147696092</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2482,19 +2482,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5981994227929</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,10 +2530,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>106.997776813539</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2722,7 +2722,7 @@
         <v>122.1493151545294</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308922</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
         <v>141.2394908002291</v>
@@ -2764,7 +2764,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352489</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2959,7 +2959,7 @@
         <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308922</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
         <v>141.2394908002291</v>
@@ -3190,10 +3190,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3427,10 +3427,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652583</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>512.0584091869811</v>
+        <v>1857.810682795504</v>
       </c>
       <c r="C2" t="n">
-        <v>143.0958922465693</v>
+        <v>1488.848165855093</v>
       </c>
       <c r="D2" t="n">
-        <v>143.0958922465693</v>
+        <v>1488.848165855093</v>
       </c>
       <c r="E2" t="n">
-        <v>143.0958922465693</v>
+        <v>1103.059913256848</v>
       </c>
       <c r="F2" t="n">
-        <v>143.0958922465693</v>
+        <v>692.0740084672409</v>
       </c>
       <c r="G2" t="n">
-        <v>143.0958922465693</v>
+        <v>276.3692581915298</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4334,10 +4334,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4346,34 +4346,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926627</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.313418796631</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>1975.313418796631</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.263339487994</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="X2" t="n">
-        <v>1288.797581226915</v>
+        <v>1857.810682795504</v>
       </c>
       <c r="Y2" t="n">
-        <v>898.6582492511029</v>
+        <v>1857.810682795504</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488059</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756909</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182533</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>143.6627691908473</v>
+        <v>168.0008189145195</v>
       </c>
       <c r="K3" t="n">
-        <v>590.2049751143502</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458221</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710447</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>665.1026499885493</v>
+        <v>940.7932119894607</v>
       </c>
       <c r="C4" t="n">
-        <v>496.1664670606424</v>
+        <v>771.8570290615538</v>
       </c>
       <c r="D4" t="n">
-        <v>346.0498276483066</v>
+        <v>621.7403896492181</v>
       </c>
       <c r="E4" t="n">
-        <v>198.1367340659135</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800313</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800313</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800313</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4495,7 +4495,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4507,31 +4507,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
         <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1350.431227717718</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1350.431227717718</v>
       </c>
       <c r="U4" t="n">
-        <v>1114.255484944676</v>
+        <v>1350.431227717718</v>
       </c>
       <c r="V4" t="n">
-        <v>859.5709967387896</v>
+        <v>1350.431227717718</v>
       </c>
       <c r="W4" t="n">
-        <v>859.5709967387896</v>
+        <v>1350.431227717718</v>
       </c>
       <c r="X4" t="n">
-        <v>859.5709967387896</v>
+        <v>1122.4416768197</v>
       </c>
       <c r="Y4" t="n">
-        <v>846.751114818789</v>
+        <v>1122.4416768197</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1128.666547093599</v>
+        <v>826.0776793172992</v>
       </c>
       <c r="C5" t="n">
-        <v>759.7040301531877</v>
+        <v>826.0776793172992</v>
       </c>
       <c r="D5" t="n">
-        <v>759.7040301531877</v>
+        <v>826.0776793172992</v>
       </c>
       <c r="E5" t="n">
-        <v>373.9157775549434</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F5" t="n">
-        <v>366.9702768057399</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800313</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4580,37 +4580,37 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2495.394035365093</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.593687005981</v>
+        <v>2286.648393970917</v>
       </c>
       <c r="U5" t="n">
-        <v>2353.593687005981</v>
+        <v>2286.648393970917</v>
       </c>
       <c r="V5" t="n">
-        <v>2022.53079966241</v>
+        <v>1955.585506627347</v>
       </c>
       <c r="W5" t="n">
-        <v>1905.405719133533</v>
+        <v>1602.816851357233</v>
       </c>
       <c r="X5" t="n">
-        <v>1905.405719133533</v>
+        <v>1602.816851357233</v>
       </c>
       <c r="Y5" t="n">
-        <v>1515.266387157721</v>
+        <v>1212.677519381421</v>
       </c>
     </row>
     <row r="6">
@@ -4641,31 +4641,31 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370162</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>423.1489515180662</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>717.852508549538</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1081.114527508758</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N6" t="n">
-        <v>1468.399656105704</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O6" t="n">
-        <v>1800.470091281866</v>
+        <v>1675.63996629486</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2238.100841080694</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>265.285119119724</v>
+        <v>493.5735025585392</v>
       </c>
       <c r="C7" t="n">
-        <v>265.285119119724</v>
+        <v>324.6373196306323</v>
       </c>
       <c r="D7" t="n">
-        <v>198.1367340659135</v>
+        <v>305.0150268210029</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800313</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800313</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800313</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234359</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1439.817372234359</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="U7" t="n">
-        <v>1439.817372234359</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V7" t="n">
-        <v>1185.132884028472</v>
+        <v>896.0145465323091</v>
       </c>
       <c r="W7" t="n">
-        <v>895.7157139915112</v>
+        <v>896.0145465323091</v>
       </c>
       <c r="X7" t="n">
-        <v>667.7261630934938</v>
+        <v>896.0145465323091</v>
       </c>
       <c r="Y7" t="n">
-        <v>446.9335839499637</v>
+        <v>675.2219673887789</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1785.600156360223</v>
+        <v>1240.759433410664</v>
       </c>
       <c r="C8" t="n">
-        <v>1416.637639419812</v>
+        <v>871.7969164702522</v>
       </c>
       <c r="D8" t="n">
-        <v>1058.371940813061</v>
+        <v>513.5312178635018</v>
       </c>
       <c r="E8" t="n">
-        <v>1058.371940813061</v>
+        <v>513.5312178635018</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>506.5857171142983</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800314</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764999</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723852</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400157</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400157</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400157</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400157</v>
+        <v>2000.825031735865</v>
       </c>
       <c r="X8" t="n">
-        <v>2562.339328400157</v>
+        <v>1627.359273474786</v>
       </c>
       <c r="Y8" t="n">
-        <v>2172.199996424345</v>
+        <v>1627.359273474786</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800314</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370162</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380219</v>
+        <v>590.2049751143493</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694938</v>
+        <v>884.908532145821</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>771.8570290615538</v>
+        <v>770.9577966591559</v>
       </c>
       <c r="C10" t="n">
-        <v>771.8570290615538</v>
+        <v>602.021613731249</v>
       </c>
       <c r="D10" t="n">
-        <v>621.7403896492181</v>
+        <v>451.9049743189132</v>
       </c>
       <c r="E10" t="n">
-        <v>473.8272960668249</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800314</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312205</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020477</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
         <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4981,31 +4981,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
         <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.86271359008</v>
+        <v>1401.388391530943</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.86271359008</v>
+        <v>1401.388391530943</v>
       </c>
       <c r="U10" t="n">
-        <v>1533.86271359008</v>
+        <v>1401.388391530943</v>
       </c>
       <c r="V10" t="n">
-        <v>1533.86271359008</v>
+        <v>1401.388391530943</v>
       </c>
       <c r="W10" t="n">
-        <v>1244.445543553119</v>
+        <v>1401.388391530943</v>
       </c>
       <c r="X10" t="n">
-        <v>1016.455992655102</v>
+        <v>1173.398840632926</v>
       </c>
       <c r="Y10" t="n">
-        <v>795.6634135115718</v>
+        <v>952.6062614893956</v>
       </c>
     </row>
     <row r="11">
@@ -5036,16 +5036,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5118,25 +5118,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>632.7243904253733</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="C13" t="n">
-        <v>632.7243904253733</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253733</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
         <v>484.8112968429802</v>
@@ -5209,10 +5209,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.76484885336</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2314.910189088387</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>2095.308724111328</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854705</v>
+        <v>1806.233497455525</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>1551.549009249638</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1262.131839212678</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138402</v>
+        <v>1034.14228831466</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.50206557031</v>
+        <v>813.3497091711303</v>
       </c>
     </row>
     <row r="14">
@@ -5273,25 +5273,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5358,19 +5358,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1268.578514636217</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400712</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E16" t="n">
-        <v>513.8536007400712</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5495,37 +5495,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1268.578514636218</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>923.4916164683283</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C19" t="n">
-        <v>754.5554335404214</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>604.4387941280856</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>604.4387941280856</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>457.5488466301753</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611858</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>923.4916164683283</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5732,10 +5732,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1140.291933891999</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1767.889897446606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,55 +5884,55 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>800.5007694647277</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>631.5645865368208</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>481.447947124485</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>333.5348535420919</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>186.6449060441816</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>186.6449060441816</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
         <v>2264.108249235165</v>
@@ -5944,16 +5944,16 @@
         <v>1975.033022579363</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.348534373476</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W22" t="n">
-        <v>1430.931364336515</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>1202.941813438498</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1492342949674</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5975,34 +5975,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6075,16 +6075,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>802.9288273958734</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C25" t="n">
-        <v>633.9926444679666</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D25" t="n">
-        <v>483.8760050556308</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E25" t="n">
-        <v>483.8760050556308</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>483.8760050556308</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510508</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304621</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.359422267661</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.369871369643</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.5772922261132</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="26">
@@ -6215,28 +6215,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D28" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
         <v>411.2214559580113</v>
@@ -6415,10 +6415,10 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
         <v>1483.798285518751</v>
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6549,13 +6549,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311319</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6643,10 +6643,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
@@ -6655,7 +6655,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6686,16 +6686,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.192580311172</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L33" t="n">
-        <v>427.7414352191925</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,7 +6932,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D37" t="n">
         <v>656.9646031150024</v>
@@ -7081,13 +7081,13 @@
         <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345478</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384022</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7111,13 +7111,13 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
@@ -7126,7 +7126,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7154,37 +7154,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345471</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384015</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311323</v>
@@ -7351,31 +7351,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931272</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547833</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7391,28 +7391,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345478</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,25 +7567,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.221455958011</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345472</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384016</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7810,7 +7810,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7834,10 +7834,10 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>30.36925650589485</v>
+        <v>54.9531451156648</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8079,7 +8079,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>193.3273467878341</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>186.4490126143854</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154985</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878341</v>
+        <v>168.7434581780638</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154985</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8930,10 +8930,10 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>-2.160049916710705e-12</v>
       </c>
       <c r="M14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,19 +22553,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>275.7978506130952</v>
+        <v>38.82591545325036</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>117.6820817884499</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,10 +23422,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>116.6691671648117</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>116.6691671648112</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>211.1765892730629</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,13 +23896,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>26.98982571067694</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>111.7546635373304</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24139,10 +24139,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>129.6605885985418</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,10 +24184,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>8.661728554218797</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9259388694759707</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,10 +24418,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>179.1866975757051</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>-7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>-7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64921.82232287327</v>
+        <v>64921.82232287324</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.17698642837</v>
+        <v>82104.17698642839</v>
       </c>
       <c r="D2" t="n">
-        <v>82104.1769864284</v>
+        <v>82104.17698642839</v>
       </c>
       <c r="E2" t="n">
-        <v>80714.65996900061</v>
+        <v>80714.65996900067</v>
       </c>
       <c r="F2" t="n">
-        <v>80714.6599690006</v>
+        <v>80714.65996900058</v>
       </c>
       <c r="G2" t="n">
         <v>80714.65996900061</v>
       </c>
       <c r="H2" t="n">
-        <v>80714.65996900058</v>
+        <v>80714.6599690006</v>
       </c>
       <c r="I2" t="n">
         <v>80714.65996900061</v>
       </c>
       <c r="J2" t="n">
+        <v>82104.17698642839</v>
+      </c>
+      <c r="K2" t="n">
+        <v>82104.17698642833</v>
+      </c>
+      <c r="L2" t="n">
         <v>82104.17698642836</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>82104.17698642831</v>
+      </c>
+      <c r="N2" t="n">
         <v>82104.17698642837</v>
-      </c>
-      <c r="L2" t="n">
-        <v>82104.17698642841</v>
-      </c>
-      <c r="M2" t="n">
-        <v>82104.17698642839</v>
-      </c>
-      <c r="N2" t="n">
-        <v>82104.17698642833</v>
       </c>
       <c r="O2" t="n">
         <v>82104.17698642837</v>
       </c>
       <c r="P2" t="n">
-        <v>82104.17698642841</v>
+        <v>82104.17698642837</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>187032.8958036144</v>
+        <v>187032.8958036143</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.7179936318</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35042.64031981778</v>
+        <v>35042.64031981781</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="D4" t="n">
         <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
+        <v>7507.368461719668</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7507.36846171962</v>
+      </c>
+      <c r="G4" t="n">
         <v>7507.368461719667</v>
       </c>
-      <c r="F4" t="n">
-        <v>7507.368461719677</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7507.3684617197</v>
-      </c>
       <c r="H4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171969</v>
       </c>
       <c r="I4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>15498.22772481315</v>
+        <v>15498.22772481314</v>
       </c>
       <c r="K4" t="n">
-        <v>15498.22772481316</v>
+        <v>15498.22772481314</v>
       </c>
       <c r="L4" t="n">
-        <v>15498.22772481314</v>
+        <v>15498.22772481313</v>
       </c>
       <c r="M4" t="n">
         <v>15498.22772481314</v>
       </c>
       <c r="N4" t="n">
-        <v>15498.22772481316</v>
+        <v>15498.22772481313</v>
       </c>
       <c r="O4" t="n">
-        <v>15498.22772481315</v>
+        <v>15498.22772481314</v>
       </c>
       <c r="P4" t="n">
-        <v>15498.22772481313</v>
+        <v>15498.22772481314</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984475</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1177810.374012709</v>
+        <v>-1178239.932879298</v>
       </c>
       <c r="C6" t="n">
-        <v>-143947.4590001606</v>
+        <v>-143947.4590001607</v>
       </c>
       <c r="D6" t="n">
-        <v>-143947.4590001606</v>
+        <v>-143947.4590001607</v>
       </c>
       <c r="E6" t="n">
-        <v>-535400.6799411719</v>
+        <v>-535435.4178666077</v>
       </c>
       <c r="F6" t="n">
-        <v>-27915.23831662619</v>
+        <v>-27949.97624206186</v>
       </c>
       <c r="G6" t="n">
-        <v>-27915.2383166262</v>
+        <v>-27949.97624206188</v>
       </c>
       <c r="H6" t="n">
-        <v>-27915.2383166262</v>
+        <v>-27949.97624206189</v>
       </c>
       <c r="I6" t="n">
-        <v>-27915.23831662617</v>
+        <v>-27949.97624206186</v>
       </c>
       <c r="J6" t="n">
-        <v>-223591.0623959146</v>
+        <v>-223591.0623959145</v>
       </c>
       <c r="K6" t="n">
-        <v>-36558.16659230019</v>
+        <v>-36558.1665923002</v>
       </c>
       <c r="L6" t="n">
-        <v>-36558.16659230013</v>
+        <v>-36558.16659230014</v>
       </c>
       <c r="M6" t="n">
-        <v>-169165.4603212267</v>
+        <v>-169165.4603212269</v>
       </c>
       <c r="N6" t="n">
-        <v>-36558.16659230023</v>
+        <v>-36558.16659230016</v>
       </c>
       <c r="O6" t="n">
         <v>-55985.88458593196</v>
       </c>
       <c r="P6" t="n">
-        <v>-36558.16659230011</v>
+        <v>-36558.16659230017</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>24.28464749203973</v>
       </c>
       <c r="L2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203973</v>
       </c>
-      <c r="M2" t="n">
-        <v>24.28464749203974</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203972</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203971</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>39.32139020186364</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>39.32139020186276</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27546,16 +27546,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>13.06528934809918</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>205.8929702512942</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>57.17637529408286</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27676,7 +27676,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>233.2871389938244</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>82.13857181493999</v>
+        <v>129.1894031366792</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,16 +27828,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>188.0983110469339</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>26.47207420459222</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>156.2636595764195</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,13 +28020,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>63.51288152319211</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31045,28 +31045,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31081,7 +31081,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,7 +31118,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31130,10 +31130,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31142,7 +31142,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,25 +31440,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,28 +31519,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31555,7 +31555,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,7 +31592,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
@@ -31604,10 +31604,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040589</v>
@@ -31616,7 +31616,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378626</v>
@@ -31628,10 +31628,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31677,19 +31677,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,7 +31838,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422586</v>
@@ -31850,7 +31850,7 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>746.4857620875795</v>
+        <v>359.7096985496632</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
@@ -31859,7 +31859,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>339.9772972286962</v>
       </c>
       <c r="N15" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817556</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>338.1920576279222</v>
+        <v>302.9675447508041</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>361.5531172119654</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>333.9544784328822</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32725,7 +32725,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
         <v>593.8732233669223</v>
@@ -32795,19 +32795,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33035,13 +33035,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33269,16 +33269,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33418,7 +33418,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
@@ -33503,25 +33503,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>396.970088694367</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33968,31 +33968,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34384,7 +34384,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>93.3494773968123</v>
+        <v>117.9333660065822</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560635</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34799,7 +34799,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977097</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34863,7 +34863,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434849</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>443.0068759113664</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>302.9297349452399</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,28 +35173,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.914843031319</v>
+        <v>355.3309544215487</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820406</v>
@@ -35273,7 +35273,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
@@ -35337,7 +35337,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35498,7 +35498,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>615.1440500042462</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35507,7 +35507,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35577,10 +35577,10 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.626132989906</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060445</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146267</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>197.8432633066779</v>
       </c>
       <c r="N15" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.454324036775</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>196.0580237059039</v>
+        <v>160.8335108287857</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>219.4190832899471</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>191.3582339884378</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36373,7 +36373,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36443,19 +36443,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36683,13 +36683,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36917,16 +36917,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>254.8360547723487</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37464,13 +37464,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
